--- a/branches/HIVDiagnosisEncouner--FIG-37/all-profiles.xlsx
+++ b/branches/HIVDiagnosisEncouner--FIG-37/all-profiles.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-02T13:01:09+00:00</t>
+    <t>2023-02-02T13:08:56+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/HIVDiagnosisEncouner--FIG-37/all-profiles.xlsx
+++ b/branches/HIVDiagnosisEncouner--FIG-37/all-profiles.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-02T13:08:56+00:00</t>
+    <t>2023-02-02T13:10:09+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/HIVDiagnosisEncouner--FIG-37/all-profiles.xlsx
+++ b/branches/HIVDiagnosisEncouner--FIG-37/all-profiles.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6451" uniqueCount="841">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6451" uniqueCount="840">
   <si>
     <t>Property</t>
   </si>
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-02T13:10:09+00:00</t>
+    <t>2023-02-03T13:32:48+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1422,12 +1422,6 @@
     <t>Concepts representing classification of patient encounter such as ambulatory (outpatient), inpatient, emergency, home health or others due to local variations.</t>
   </si>
   <si>
-    <t>&lt;valueCoding xmlns="http://hl7.org/fhir"&gt;
-  &lt;system value="http://terminology.hl7.org/CodeSystem/v3-ActCode"/&gt;
-  &lt;code value="PRENC"/&gt;
-&lt;/valueCoding&gt;</t>
-  </si>
-  <si>
     <t>Classification of the encounter.</t>
   </si>
   <si>
@@ -1525,7 +1519,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Patient|Group)
+    <t xml:space="preserve">Reference(Patient)
 </t>
   </si>
   <si>
@@ -3114,7 +3108,7 @@
         <v>2</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>646</v>
+        <v>645</v>
       </c>
     </row>
     <row r="46">
@@ -3122,7 +3116,7 @@
         <v>4</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>647</v>
+        <v>646</v>
       </c>
     </row>
     <row r="47">
@@ -3138,7 +3132,7 @@
         <v>8</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>648</v>
+        <v>647</v>
       </c>
     </row>
     <row r="49">
@@ -3226,7 +3220,7 @@
         <v>29</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>649</v>
+        <v>648</v>
       </c>
     </row>
     <row r="61">
@@ -3242,7 +3236,7 @@
         <v>32</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>650</v>
+        <v>649</v>
       </c>
     </row>
     <row r="63">
@@ -3263,10 +3257,10 @@
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
+        <v>650</v>
+      </c>
+      <c r="B65" t="s" s="2">
         <v>651</v>
-      </c>
-      <c r="B65" t="s" s="2">
-        <v>652</v>
       </c>
     </row>
     <row r="66">
@@ -3282,7 +3276,7 @@
         <v>2</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>663</v>
+        <v>662</v>
       </c>
     </row>
     <row r="68">
@@ -3290,7 +3284,7 @@
         <v>4</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>664</v>
+        <v>663</v>
       </c>
     </row>
     <row r="69">
@@ -3306,7 +3300,7 @@
         <v>8</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>665</v>
+        <v>664</v>
       </c>
     </row>
     <row r="71">
@@ -3314,7 +3308,7 @@
         <v>10</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>666</v>
+        <v>665</v>
       </c>
     </row>
     <row r="72">
@@ -3368,7 +3362,7 @@
         <v>23</v>
       </c>
       <c r="B78" t="s" s="2">
-        <v>667</v>
+        <v>666</v>
       </c>
     </row>
     <row r="79">
@@ -3404,7 +3398,7 @@
         <v>31</v>
       </c>
       <c r="B83" t="s" s="2">
-        <v>668</v>
+        <v>667</v>
       </c>
     </row>
     <row r="84">
@@ -3412,7 +3406,7 @@
         <v>32</v>
       </c>
       <c r="B84" t="s" s="2">
-        <v>669</v>
+        <v>668</v>
       </c>
     </row>
     <row r="85">
@@ -3466,7 +3460,7 @@
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="68.41015625" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="8.97265625" customWidth="true" bestFit="true"/>
     <col min="21" max="21" width="39.97265625" customWidth="true" bestFit="true"/>
     <col min="22" max="22" width="17.171875" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="17.65625" customWidth="true" bestFit="true"/>
@@ -12167,7 +12161,7 @@
         <v>77</v>
       </c>
       <c r="T83" t="s" s="2">
-        <v>451</v>
+        <v>77</v>
       </c>
       <c r="U83" t="s" s="2">
         <v>77</v>
@@ -12185,10 +12179,10 @@
         <v>176</v>
       </c>
       <c r="Z83" t="s" s="2">
+        <v>451</v>
+      </c>
+      <c r="AA83" t="s" s="2">
         <v>452</v>
-      </c>
-      <c r="AA83" t="s" s="2">
-        <v>453</v>
       </c>
       <c r="AB83" t="s" s="2">
         <v>77</v>
@@ -12226,10 +12220,10 @@
         <v>401</v>
       </c>
       <c r="B84" t="s" s="2">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="C84" t="s" s="2">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="D84" s="2"/>
       <c r="E84" t="s" s="2">
@@ -12255,10 +12249,10 @@
         <v>313</v>
       </c>
       <c r="M84" t="s" s="2">
+        <v>454</v>
+      </c>
+      <c r="N84" t="s" s="2">
         <v>455</v>
-      </c>
-      <c r="N84" t="s" s="2">
-        <v>456</v>
       </c>
       <c r="O84" s="2"/>
       <c r="P84" s="2"/>
@@ -12309,7 +12303,7 @@
         <v>77</v>
       </c>
       <c r="AG84" t="s" s="2">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="AH84" t="s" s="2">
         <v>75</v>
@@ -12329,10 +12323,10 @@
         <v>401</v>
       </c>
       <c r="B85" t="s" s="2">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="C85" t="s" s="2">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="D85" s="2"/>
       <c r="E85" t="s" s="2">
@@ -12432,10 +12426,10 @@
         <v>401</v>
       </c>
       <c r="B86" t="s" s="2">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="C86" t="s" s="2">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="D86" s="2"/>
       <c r="E86" t="s" s="2">
@@ -12537,10 +12531,10 @@
         <v>401</v>
       </c>
       <c r="B87" t="s" s="2">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="C87" t="s" s="2">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="D87" s="2"/>
       <c r="E87" t="s" s="2">
@@ -12644,10 +12638,10 @@
         <v>401</v>
       </c>
       <c r="B88" t="s" s="2">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="C88" t="s" s="2">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="D88" s="2"/>
       <c r="E88" t="s" s="2">
@@ -12673,10 +12667,10 @@
         <v>448</v>
       </c>
       <c r="M88" t="s" s="2">
+        <v>460</v>
+      </c>
+      <c r="N88" t="s" s="2">
         <v>461</v>
-      </c>
-      <c r="N88" t="s" s="2">
-        <v>462</v>
       </c>
       <c r="O88" s="2"/>
       <c r="P88" s="2"/>
@@ -12706,11 +12700,11 @@
         <v>176</v>
       </c>
       <c r="Z88" t="s" s="2">
+        <v>451</v>
+      </c>
+      <c r="AA88" t="s" s="2">
         <v>452</v>
       </c>
-      <c r="AA88" t="s" s="2">
-        <v>453</v>
-      </c>
       <c r="AB88" t="s" s="2">
         <v>77</v>
       </c>
@@ -12727,7 +12721,7 @@
         <v>77</v>
       </c>
       <c r="AG88" t="s" s="2">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="AH88" t="s" s="2">
         <v>82</v>
@@ -12747,10 +12741,10 @@
         <v>401</v>
       </c>
       <c r="B89" t="s" s="2">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="C89" t="s" s="2">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="D89" s="2"/>
       <c r="E89" t="s" s="2">
@@ -12776,10 +12770,10 @@
         <v>198</v>
       </c>
       <c r="M89" t="s" s="2">
+        <v>463</v>
+      </c>
+      <c r="N89" t="s" s="2">
         <v>464</v>
-      </c>
-      <c r="N89" t="s" s="2">
-        <v>465</v>
       </c>
       <c r="O89" s="2"/>
       <c r="P89" s="2"/>
@@ -12830,7 +12824,7 @@
         <v>77</v>
       </c>
       <c r="AG89" t="s" s="2">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="AH89" t="s" s="2">
         <v>82</v>
@@ -12850,10 +12844,10 @@
         <v>401</v>
       </c>
       <c r="B90" t="s" s="2">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="C90" t="s" s="2">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="D90" s="2"/>
       <c r="E90" t="s" s="2">
@@ -12879,13 +12873,13 @@
         <v>171</v>
       </c>
       <c r="M90" t="s" s="2">
+        <v>466</v>
+      </c>
+      <c r="N90" t="s" s="2">
         <v>467</v>
       </c>
-      <c r="N90" t="s" s="2">
+      <c r="O90" t="s" s="2">
         <v>468</v>
-      </c>
-      <c r="O90" t="s" s="2">
-        <v>469</v>
       </c>
       <c r="P90" s="2"/>
       <c r="Q90" t="s" s="2">
@@ -12911,14 +12905,14 @@
         <v>77</v>
       </c>
       <c r="Y90" t="s" s="2">
+        <v>469</v>
+      </c>
+      <c r="Z90" t="s" s="2">
         <v>470</v>
       </c>
-      <c r="Z90" t="s" s="2">
+      <c r="AA90" t="s" s="2">
         <v>471</v>
       </c>
-      <c r="AA90" t="s" s="2">
-        <v>472</v>
-      </c>
       <c r="AB90" t="s" s="2">
         <v>77</v>
       </c>
@@ -12935,7 +12929,7 @@
         <v>77</v>
       </c>
       <c r="AG90" t="s" s="2">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="AH90" t="s" s="2">
         <v>75</v>
@@ -12955,10 +12949,10 @@
         <v>401</v>
       </c>
       <c r="B91" t="s" s="2">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="C91" t="s" s="2">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="D91" s="2"/>
       <c r="E91" t="s" s="2">
@@ -12984,10 +12978,10 @@
         <v>171</v>
       </c>
       <c r="M91" t="s" s="2">
+        <v>473</v>
+      </c>
+      <c r="N91" t="s" s="2">
         <v>474</v>
-      </c>
-      <c r="N91" t="s" s="2">
-        <v>475</v>
       </c>
       <c r="O91" s="2"/>
       <c r="P91" s="2"/>
@@ -13014,14 +13008,14 @@
         <v>77</v>
       </c>
       <c r="Y91" t="s" s="2">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="Z91" t="s" s="2">
+        <v>475</v>
+      </c>
+      <c r="AA91" t="s" s="2">
         <v>476</v>
       </c>
-      <c r="AA91" t="s" s="2">
-        <v>477</v>
-      </c>
       <c r="AB91" t="s" s="2">
         <v>77</v>
       </c>
@@ -13038,7 +13032,7 @@
         <v>77</v>
       </c>
       <c r="AG91" t="s" s="2">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="AH91" t="s" s="2">
         <v>75</v>
@@ -13058,10 +13052,10 @@
         <v>401</v>
       </c>
       <c r="B92" t="s" s="2">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="C92" t="s" s="2">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="D92" s="2"/>
       <c r="E92" t="s" s="2">
@@ -13087,10 +13081,10 @@
         <v>171</v>
       </c>
       <c r="M92" t="s" s="2">
+        <v>478</v>
+      </c>
+      <c r="N92" t="s" s="2">
         <v>479</v>
-      </c>
-      <c r="N92" t="s" s="2">
-        <v>480</v>
       </c>
       <c r="O92" s="2"/>
       <c r="P92" s="2"/>
@@ -13117,14 +13111,14 @@
         <v>77</v>
       </c>
       <c r="Y92" t="s" s="2">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="Z92" t="s" s="2">
+        <v>479</v>
+      </c>
+      <c r="AA92" t="s" s="2">
         <v>480</v>
       </c>
-      <c r="AA92" t="s" s="2">
-        <v>481</v>
-      </c>
       <c r="AB92" t="s" s="2">
         <v>77</v>
       </c>
@@ -13141,7 +13135,7 @@
         <v>77</v>
       </c>
       <c r="AG92" t="s" s="2">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="AH92" t="s" s="2">
         <v>75</v>
@@ -13161,14 +13155,14 @@
         <v>401</v>
       </c>
       <c r="B93" t="s" s="2">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="C93" t="s" s="2">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="D93" s="2"/>
       <c r="E93" t="s" s="2">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="F93" s="2"/>
       <c r="G93" t="s" s="2">
@@ -13187,16 +13181,16 @@
         <v>83</v>
       </c>
       <c r="L93" t="s" s="2">
+        <v>483</v>
+      </c>
+      <c r="M93" t="s" s="2">
         <v>484</v>
       </c>
-      <c r="M93" t="s" s="2">
+      <c r="N93" t="s" s="2">
         <v>485</v>
       </c>
-      <c r="N93" t="s" s="2">
+      <c r="O93" t="s" s="2">
         <v>486</v>
-      </c>
-      <c r="O93" t="s" s="2">
-        <v>487</v>
       </c>
       <c r="P93" s="2"/>
       <c r="Q93" t="s" s="2">
@@ -13246,7 +13240,7 @@
         <v>77</v>
       </c>
       <c r="AG93" t="s" s="2">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="AH93" t="s" s="2">
         <v>75</v>
@@ -13266,10 +13260,10 @@
         <v>401</v>
       </c>
       <c r="B94" t="s" s="2">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="C94" t="s" s="2">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="D94" s="2"/>
       <c r="E94" t="s" s="2">
@@ -13292,13 +13286,13 @@
         <v>83</v>
       </c>
       <c r="L94" t="s" s="2">
+        <v>488</v>
+      </c>
+      <c r="M94" t="s" s="2">
         <v>489</v>
       </c>
-      <c r="M94" t="s" s="2">
+      <c r="N94" t="s" s="2">
         <v>490</v>
-      </c>
-      <c r="N94" t="s" s="2">
-        <v>491</v>
       </c>
       <c r="O94" s="2"/>
       <c r="P94" s="2"/>
@@ -13349,7 +13343,7 @@
         <v>77</v>
       </c>
       <c r="AG94" t="s" s="2">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="AH94" t="s" s="2">
         <v>75</v>
@@ -13369,14 +13363,14 @@
         <v>401</v>
       </c>
       <c r="B95" t="s" s="2">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="C95" t="s" s="2">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="D95" s="2"/>
       <c r="E95" t="s" s="2">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="F95" s="2"/>
       <c r="G95" t="s" s="2">
@@ -13395,13 +13389,13 @@
         <v>77</v>
       </c>
       <c r="L95" t="s" s="2">
+        <v>493</v>
+      </c>
+      <c r="M95" t="s" s="2">
         <v>494</v>
       </c>
-      <c r="M95" t="s" s="2">
+      <c r="N95" t="s" s="2">
         <v>495</v>
-      </c>
-      <c r="N95" t="s" s="2">
-        <v>496</v>
       </c>
       <c r="O95" s="2"/>
       <c r="P95" s="2"/>
@@ -13452,7 +13446,7 @@
         <v>77</v>
       </c>
       <c r="AG95" t="s" s="2">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="AH95" t="s" s="2">
         <v>75</v>
@@ -13472,10 +13466,10 @@
         <v>401</v>
       </c>
       <c r="B96" t="s" s="2">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="C96" t="s" s="2">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="D96" s="2"/>
       <c r="E96" t="s" s="2">
@@ -13501,10 +13495,10 @@
         <v>313</v>
       </c>
       <c r="M96" t="s" s="2">
+        <v>497</v>
+      </c>
+      <c r="N96" t="s" s="2">
         <v>498</v>
-      </c>
-      <c r="N96" t="s" s="2">
-        <v>499</v>
       </c>
       <c r="O96" s="2"/>
       <c r="P96" s="2"/>
@@ -13555,7 +13549,7 @@
         <v>77</v>
       </c>
       <c r="AG96" t="s" s="2">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="AH96" t="s" s="2">
         <v>75</v>
@@ -13575,10 +13569,10 @@
         <v>401</v>
       </c>
       <c r="B97" t="s" s="2">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="C97" t="s" s="2">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="D97" s="2"/>
       <c r="E97" t="s" s="2">
@@ -13678,10 +13672,10 @@
         <v>401</v>
       </c>
       <c r="B98" t="s" s="2">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="C98" t="s" s="2">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="D98" s="2"/>
       <c r="E98" t="s" s="2">
@@ -13783,10 +13777,10 @@
         <v>401</v>
       </c>
       <c r="B99" t="s" s="2">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="C99" t="s" s="2">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="D99" s="2"/>
       <c r="E99" t="s" s="2">
@@ -13890,10 +13884,10 @@
         <v>401</v>
       </c>
       <c r="B100" t="s" s="2">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="C100" t="s" s="2">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="D100" s="2"/>
       <c r="E100" t="s" s="2">
@@ -13919,13 +13913,13 @@
         <v>171</v>
       </c>
       <c r="M100" t="s" s="2">
+        <v>503</v>
+      </c>
+      <c r="N100" t="s" s="2">
         <v>504</v>
       </c>
-      <c r="N100" t="s" s="2">
+      <c r="O100" t="s" s="2">
         <v>505</v>
-      </c>
-      <c r="O100" t="s" s="2">
-        <v>506</v>
       </c>
       <c r="P100" s="2"/>
       <c r="Q100" t="s" s="2">
@@ -13954,10 +13948,10 @@
         <v>176</v>
       </c>
       <c r="Z100" t="s" s="2">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="AA100" t="s" s="2">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="AB100" t="s" s="2">
         <v>77</v>
@@ -13975,7 +13969,7 @@
         <v>77</v>
       </c>
       <c r="AG100" t="s" s="2">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="AH100" t="s" s="2">
         <v>75</v>
@@ -13995,10 +13989,10 @@
         <v>401</v>
       </c>
       <c r="B101" t="s" s="2">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="C101" t="s" s="2">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="D101" s="2"/>
       <c r="E101" t="s" s="2">
@@ -14024,10 +14018,10 @@
         <v>198</v>
       </c>
       <c r="M101" t="s" s="2">
+        <v>508</v>
+      </c>
+      <c r="N101" t="s" s="2">
         <v>509</v>
-      </c>
-      <c r="N101" t="s" s="2">
-        <v>510</v>
       </c>
       <c r="O101" s="2"/>
       <c r="P101" s="2"/>
@@ -14078,7 +14072,7 @@
         <v>77</v>
       </c>
       <c r="AG101" t="s" s="2">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="AH101" t="s" s="2">
         <v>75</v>
@@ -14098,10 +14092,10 @@
         <v>401</v>
       </c>
       <c r="B102" t="s" s="2">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="C102" t="s" s="2">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="D102" s="2"/>
       <c r="E102" t="s" s="2">
@@ -14124,13 +14118,13 @@
         <v>83</v>
       </c>
       <c r="L102" t="s" s="2">
+        <v>511</v>
+      </c>
+      <c r="M102" t="s" s="2">
         <v>512</v>
       </c>
-      <c r="M102" t="s" s="2">
+      <c r="N102" t="s" s="2">
         <v>513</v>
-      </c>
-      <c r="N102" t="s" s="2">
-        <v>514</v>
       </c>
       <c r="O102" s="2"/>
       <c r="P102" s="2"/>
@@ -14181,7 +14175,7 @@
         <v>77</v>
       </c>
       <c r="AG102" t="s" s="2">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="AH102" t="s" s="2">
         <v>75</v>
@@ -14201,10 +14195,10 @@
         <v>401</v>
       </c>
       <c r="B103" t="s" s="2">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="C103" t="s" s="2">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="D103" s="2"/>
       <c r="E103" t="s" s="2">
@@ -14227,13 +14221,13 @@
         <v>83</v>
       </c>
       <c r="L103" t="s" s="2">
+        <v>515</v>
+      </c>
+      <c r="M103" t="s" s="2">
         <v>516</v>
       </c>
-      <c r="M103" t="s" s="2">
+      <c r="N103" t="s" s="2">
         <v>517</v>
-      </c>
-      <c r="N103" t="s" s="2">
-        <v>518</v>
       </c>
       <c r="O103" s="2"/>
       <c r="P103" s="2"/>
@@ -14284,7 +14278,7 @@
         <v>77</v>
       </c>
       <c r="AG103" t="s" s="2">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="AH103" t="s" s="2">
         <v>75</v>
@@ -14304,10 +14298,10 @@
         <v>401</v>
       </c>
       <c r="B104" t="s" s="2">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="C104" t="s" s="2">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="D104" s="2"/>
       <c r="E104" t="s" s="2">
@@ -14333,13 +14327,13 @@
         <v>198</v>
       </c>
       <c r="M104" t="s" s="2">
+        <v>519</v>
+      </c>
+      <c r="N104" t="s" s="2">
         <v>520</v>
       </c>
-      <c r="N104" t="s" s="2">
+      <c r="O104" t="s" s="2">
         <v>521</v>
-      </c>
-      <c r="O104" t="s" s="2">
-        <v>522</v>
       </c>
       <c r="P104" s="2"/>
       <c r="Q104" t="s" s="2">
@@ -14389,7 +14383,7 @@
         <v>77</v>
       </c>
       <c r="AG104" t="s" s="2">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="AH104" t="s" s="2">
         <v>75</v>
@@ -14409,10 +14403,10 @@
         <v>401</v>
       </c>
       <c r="B105" t="s" s="2">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="C105" t="s" s="2">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="D105" s="2"/>
       <c r="E105" t="s" s="2">
@@ -14435,16 +14429,16 @@
         <v>77</v>
       </c>
       <c r="L105" t="s" s="2">
+        <v>523</v>
+      </c>
+      <c r="M105" t="s" s="2">
         <v>524</v>
       </c>
-      <c r="M105" t="s" s="2">
+      <c r="N105" t="s" s="2">
         <v>525</v>
       </c>
-      <c r="N105" t="s" s="2">
+      <c r="O105" t="s" s="2">
         <v>526</v>
-      </c>
-      <c r="O105" t="s" s="2">
-        <v>527</v>
       </c>
       <c r="P105" s="2"/>
       <c r="Q105" t="s" s="2">
@@ -14494,7 +14488,7 @@
         <v>77</v>
       </c>
       <c r="AG105" t="s" s="2">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="AH105" t="s" s="2">
         <v>75</v>
@@ -14514,14 +14508,14 @@
         <v>401</v>
       </c>
       <c r="B106" t="s" s="2">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="C106" t="s" s="2">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="D106" s="2"/>
       <c r="E106" t="s" s="2">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="F106" s="2"/>
       <c r="G106" t="s" s="2">
@@ -14543,13 +14537,13 @@
         <v>171</v>
       </c>
       <c r="M106" t="s" s="2">
+        <v>529</v>
+      </c>
+      <c r="N106" t="s" s="2">
         <v>530</v>
       </c>
-      <c r="N106" t="s" s="2">
+      <c r="O106" t="s" s="2">
         <v>531</v>
-      </c>
-      <c r="O106" t="s" s="2">
-        <v>532</v>
       </c>
       <c r="P106" s="2"/>
       <c r="Q106" t="s" s="2">
@@ -14578,11 +14572,11 @@
         <v>106</v>
       </c>
       <c r="Z106" t="s" s="2">
+        <v>532</v>
+      </c>
+      <c r="AA106" t="s" s="2">
         <v>533</v>
       </c>
-      <c r="AA106" t="s" s="2">
-        <v>534</v>
-      </c>
       <c r="AB106" t="s" s="2">
         <v>77</v>
       </c>
@@ -14599,7 +14593,7 @@
         <v>77</v>
       </c>
       <c r="AG106" t="s" s="2">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="AH106" t="s" s="2">
         <v>75</v>
@@ -14619,14 +14613,14 @@
         <v>401</v>
       </c>
       <c r="B107" t="s" s="2">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="C107" t="s" s="2">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="D107" s="2"/>
       <c r="E107" t="s" s="2">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="F107" s="2"/>
       <c r="G107" t="s" s="2">
@@ -14645,16 +14639,16 @@
         <v>83</v>
       </c>
       <c r="L107" t="s" s="2">
+        <v>535</v>
+      </c>
+      <c r="M107" t="s" s="2">
         <v>536</v>
       </c>
-      <c r="M107" t="s" s="2">
-        <v>537</v>
-      </c>
       <c r="N107" t="s" s="2">
+        <v>530</v>
+      </c>
+      <c r="O107" t="s" s="2">
         <v>531</v>
-      </c>
-      <c r="O107" t="s" s="2">
-        <v>532</v>
       </c>
       <c r="P107" s="2"/>
       <c r="Q107" t="s" s="2">
@@ -14704,7 +14698,7 @@
         <v>77</v>
       </c>
       <c r="AG107" t="s" s="2">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="AH107" t="s" s="2">
         <v>75</v>
@@ -14724,10 +14718,10 @@
         <v>401</v>
       </c>
       <c r="B108" t="s" s="2">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="C108" t="s" s="2">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="D108" s="2"/>
       <c r="E108" t="s" s="2">
@@ -14753,10 +14747,10 @@
         <v>313</v>
       </c>
       <c r="M108" t="s" s="2">
+        <v>538</v>
+      </c>
+      <c r="N108" t="s" s="2">
         <v>539</v>
-      </c>
-      <c r="N108" t="s" s="2">
-        <v>540</v>
       </c>
       <c r="O108" s="2"/>
       <c r="P108" s="2"/>
@@ -14807,7 +14801,7 @@
         <v>77</v>
       </c>
       <c r="AG108" t="s" s="2">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="AH108" t="s" s="2">
         <v>75</v>
@@ -14827,10 +14821,10 @@
         <v>401</v>
       </c>
       <c r="B109" t="s" s="2">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="C109" t="s" s="2">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="D109" s="2"/>
       <c r="E109" t="s" s="2">
@@ -14930,10 +14924,10 @@
         <v>401</v>
       </c>
       <c r="B110" t="s" s="2">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="C110" t="s" s="2">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="D110" s="2"/>
       <c r="E110" t="s" s="2">
@@ -15035,10 +15029,10 @@
         <v>401</v>
       </c>
       <c r="B111" t="s" s="2">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="C111" t="s" s="2">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="D111" s="2"/>
       <c r="E111" t="s" s="2">
@@ -15142,14 +15136,14 @@
         <v>401</v>
       </c>
       <c r="B112" t="s" s="2">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="C112" t="s" s="2">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="D112" s="2"/>
       <c r="E112" t="s" s="2">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="F112" s="2"/>
       <c r="G112" t="s" s="2">
@@ -15168,16 +15162,16 @@
         <v>83</v>
       </c>
       <c r="L112" t="s" s="2">
+        <v>545</v>
+      </c>
+      <c r="M112" t="s" s="2">
         <v>546</v>
       </c>
-      <c r="M112" t="s" s="2">
+      <c r="N112" t="s" s="2">
         <v>547</v>
       </c>
-      <c r="N112" t="s" s="2">
-        <v>548</v>
-      </c>
       <c r="O112" t="s" s="2">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="P112" s="2"/>
       <c r="Q112" t="s" s="2">
@@ -15227,7 +15221,7 @@
         <v>77</v>
       </c>
       <c r="AG112" t="s" s="2">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="AH112" t="s" s="2">
         <v>82</v>
@@ -15247,10 +15241,10 @@
         <v>401</v>
       </c>
       <c r="B113" t="s" s="2">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="C113" t="s" s="2">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="D113" s="2"/>
       <c r="E113" t="s" s="2">
@@ -15276,10 +15270,10 @@
         <v>171</v>
       </c>
       <c r="M113" t="s" s="2">
+        <v>549</v>
+      </c>
+      <c r="N113" t="s" s="2">
         <v>550</v>
-      </c>
-      <c r="N113" t="s" s="2">
-        <v>551</v>
       </c>
       <c r="O113" s="2"/>
       <c r="P113" s="2"/>
@@ -15309,11 +15303,11 @@
         <v>106</v>
       </c>
       <c r="Z113" t="s" s="2">
+        <v>551</v>
+      </c>
+      <c r="AA113" t="s" s="2">
         <v>552</v>
       </c>
-      <c r="AA113" t="s" s="2">
-        <v>553</v>
-      </c>
       <c r="AB113" t="s" s="2">
         <v>77</v>
       </c>
@@ -15330,7 +15324,7 @@
         <v>77</v>
       </c>
       <c r="AG113" t="s" s="2">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="AH113" t="s" s="2">
         <v>75</v>
@@ -15350,10 +15344,10 @@
         <v>401</v>
       </c>
       <c r="B114" t="s" s="2">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="C114" t="s" s="2">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="D114" s="2"/>
       <c r="E114" t="s" s="2">
@@ -15376,13 +15370,13 @@
         <v>77</v>
       </c>
       <c r="L114" t="s" s="2">
+        <v>554</v>
+      </c>
+      <c r="M114" t="s" s="2">
         <v>555</v>
       </c>
-      <c r="M114" t="s" s="2">
+      <c r="N114" t="s" s="2">
         <v>556</v>
-      </c>
-      <c r="N114" t="s" s="2">
-        <v>557</v>
       </c>
       <c r="O114" s="2"/>
       <c r="P114" s="2"/>
@@ -15433,7 +15427,7 @@
         <v>77</v>
       </c>
       <c r="AG114" t="s" s="2">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="AH114" t="s" s="2">
         <v>75</v>
@@ -15453,10 +15447,10 @@
         <v>401</v>
       </c>
       <c r="B115" t="s" s="2">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="C115" t="s" s="2">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="D115" s="2"/>
       <c r="E115" t="s" s="2">
@@ -15479,16 +15473,16 @@
         <v>77</v>
       </c>
       <c r="L115" t="s" s="2">
+        <v>558</v>
+      </c>
+      <c r="M115" t="s" s="2">
         <v>559</v>
       </c>
-      <c r="M115" t="s" s="2">
+      <c r="N115" t="s" s="2">
         <v>560</v>
       </c>
-      <c r="N115" t="s" s="2">
+      <c r="O115" t="s" s="2">
         <v>561</v>
-      </c>
-      <c r="O115" t="s" s="2">
-        <v>562</v>
       </c>
       <c r="P115" s="2"/>
       <c r="Q115" t="s" s="2">
@@ -15538,7 +15532,7 @@
         <v>77</v>
       </c>
       <c r="AG115" t="s" s="2">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="AH115" t="s" s="2">
         <v>75</v>
@@ -15558,10 +15552,10 @@
         <v>401</v>
       </c>
       <c r="B116" t="s" s="2">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="C116" t="s" s="2">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="D116" s="2"/>
       <c r="E116" t="s" s="2">
@@ -15587,13 +15581,13 @@
         <v>313</v>
       </c>
       <c r="M116" t="s" s="2">
+        <v>563</v>
+      </c>
+      <c r="N116" t="s" s="2">
         <v>564</v>
       </c>
-      <c r="N116" t="s" s="2">
+      <c r="O116" t="s" s="2">
         <v>565</v>
-      </c>
-      <c r="O116" t="s" s="2">
-        <v>566</v>
       </c>
       <c r="P116" s="2"/>
       <c r="Q116" t="s" s="2">
@@ -15643,7 +15637,7 @@
         <v>77</v>
       </c>
       <c r="AG116" t="s" s="2">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="AH116" t="s" s="2">
         <v>75</v>
@@ -15663,10 +15657,10 @@
         <v>401</v>
       </c>
       <c r="B117" t="s" s="2">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="C117" t="s" s="2">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="D117" s="2"/>
       <c r="E117" t="s" s="2">
@@ -15766,10 +15760,10 @@
         <v>401</v>
       </c>
       <c r="B118" t="s" s="2">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="C118" t="s" s="2">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="D118" s="2"/>
       <c r="E118" t="s" s="2">
@@ -15871,10 +15865,10 @@
         <v>401</v>
       </c>
       <c r="B119" t="s" s="2">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="C119" t="s" s="2">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="D119" s="2"/>
       <c r="E119" t="s" s="2">
@@ -15978,10 +15972,10 @@
         <v>401</v>
       </c>
       <c r="B120" t="s" s="2">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="C120" t="s" s="2">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="D120" s="2"/>
       <c r="E120" t="s" s="2">
@@ -16007,10 +16001,10 @@
         <v>138</v>
       </c>
       <c r="M120" t="s" s="2">
+        <v>570</v>
+      </c>
+      <c r="N120" t="s" s="2">
         <v>571</v>
-      </c>
-      <c r="N120" t="s" s="2">
-        <v>572</v>
       </c>
       <c r="O120" s="2"/>
       <c r="P120" s="2"/>
@@ -16061,7 +16055,7 @@
         <v>77</v>
       </c>
       <c r="AG120" t="s" s="2">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="AH120" t="s" s="2">
         <v>75</v>
@@ -16081,10 +16075,10 @@
         <v>401</v>
       </c>
       <c r="B121" t="s" s="2">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C121" t="s" s="2">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="D121" s="2"/>
       <c r="E121" t="s" s="2">
@@ -16107,13 +16101,13 @@
         <v>77</v>
       </c>
       <c r="L121" t="s" s="2">
+        <v>573</v>
+      </c>
+      <c r="M121" t="s" s="2">
         <v>574</v>
       </c>
-      <c r="M121" t="s" s="2">
+      <c r="N121" t="s" s="2">
         <v>575</v>
-      </c>
-      <c r="N121" t="s" s="2">
-        <v>576</v>
       </c>
       <c r="O121" s="2"/>
       <c r="P121" s="2"/>
@@ -16164,7 +16158,7 @@
         <v>77</v>
       </c>
       <c r="AG121" t="s" s="2">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="AH121" t="s" s="2">
         <v>75</v>
@@ -16184,10 +16178,10 @@
         <v>401</v>
       </c>
       <c r="B122" t="s" s="2">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="C122" t="s" s="2">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="D122" s="2"/>
       <c r="E122" t="s" s="2">
@@ -16213,10 +16207,10 @@
         <v>171</v>
       </c>
       <c r="M122" t="s" s="2">
+        <v>577</v>
+      </c>
+      <c r="N122" t="s" s="2">
         <v>578</v>
-      </c>
-      <c r="N122" t="s" s="2">
-        <v>579</v>
       </c>
       <c r="O122" s="2"/>
       <c r="P122" s="2"/>
@@ -16246,11 +16240,11 @@
         <v>106</v>
       </c>
       <c r="Z122" t="s" s="2">
+        <v>579</v>
+      </c>
+      <c r="AA122" t="s" s="2">
         <v>580</v>
       </c>
-      <c r="AA122" t="s" s="2">
-        <v>581</v>
-      </c>
       <c r="AB122" t="s" s="2">
         <v>77</v>
       </c>
@@ -16267,7 +16261,7 @@
         <v>77</v>
       </c>
       <c r="AG122" t="s" s="2">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="AH122" t="s" s="2">
         <v>75</v>
@@ -16287,10 +16281,10 @@
         <v>401</v>
       </c>
       <c r="B123" t="s" s="2">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="C123" t="s" s="2">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="D123" s="2"/>
       <c r="E123" t="s" s="2">
@@ -16316,10 +16310,10 @@
         <v>171</v>
       </c>
       <c r="M123" t="s" s="2">
+        <v>582</v>
+      </c>
+      <c r="N123" t="s" s="2">
         <v>583</v>
-      </c>
-      <c r="N123" t="s" s="2">
-        <v>584</v>
       </c>
       <c r="O123" s="2"/>
       <c r="P123" s="2"/>
@@ -16346,14 +16340,14 @@
         <v>77</v>
       </c>
       <c r="Y123" t="s" s="2">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="Z123" t="s" s="2">
+        <v>584</v>
+      </c>
+      <c r="AA123" t="s" s="2">
         <v>585</v>
       </c>
-      <c r="AA123" t="s" s="2">
-        <v>586</v>
-      </c>
       <c r="AB123" t="s" s="2">
         <v>77</v>
       </c>
@@ -16370,7 +16364,7 @@
         <v>77</v>
       </c>
       <c r="AG123" t="s" s="2">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="AH123" t="s" s="2">
         <v>75</v>
@@ -16390,10 +16384,10 @@
         <v>401</v>
       </c>
       <c r="B124" t="s" s="2">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="C124" t="s" s="2">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="D124" s="2"/>
       <c r="E124" t="s" s="2">
@@ -16419,16 +16413,16 @@
         <v>171</v>
       </c>
       <c r="M124" t="s" s="2">
+        <v>587</v>
+      </c>
+      <c r="N124" t="s" s="2">
         <v>588</v>
       </c>
-      <c r="N124" t="s" s="2">
+      <c r="O124" t="s" s="2">
         <v>589</v>
       </c>
-      <c r="O124" t="s" s="2">
+      <c r="P124" t="s" s="2">
         <v>590</v>
-      </c>
-      <c r="P124" t="s" s="2">
-        <v>591</v>
       </c>
       <c r="Q124" t="s" s="2">
         <v>77</v>
@@ -16453,14 +16447,14 @@
         <v>77</v>
       </c>
       <c r="Y124" t="s" s="2">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="Z124" t="s" s="2">
+        <v>591</v>
+      </c>
+      <c r="AA124" t="s" s="2">
         <v>592</v>
       </c>
-      <c r="AA124" t="s" s="2">
-        <v>593</v>
-      </c>
       <c r="AB124" t="s" s="2">
         <v>77</v>
       </c>
@@ -16477,7 +16471,7 @@
         <v>77</v>
       </c>
       <c r="AG124" t="s" s="2">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="AH124" t="s" s="2">
         <v>75</v>
@@ -16497,10 +16491,10 @@
         <v>401</v>
       </c>
       <c r="B125" t="s" s="2">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="C125" t="s" s="2">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="D125" s="2"/>
       <c r="E125" t="s" s="2">
@@ -16526,10 +16520,10 @@
         <v>171</v>
       </c>
       <c r="M125" t="s" s="2">
+        <v>594</v>
+      </c>
+      <c r="N125" t="s" s="2">
         <v>595</v>
-      </c>
-      <c r="N125" t="s" s="2">
-        <v>596</v>
       </c>
       <c r="O125" s="2"/>
       <c r="P125" s="2"/>
@@ -16559,11 +16553,11 @@
         <v>106</v>
       </c>
       <c r="Z125" t="s" s="2">
+        <v>596</v>
+      </c>
+      <c r="AA125" t="s" s="2">
         <v>597</v>
       </c>
-      <c r="AA125" t="s" s="2">
-        <v>598</v>
-      </c>
       <c r="AB125" t="s" s="2">
         <v>77</v>
       </c>
@@ -16580,7 +16574,7 @@
         <v>77</v>
       </c>
       <c r="AG125" t="s" s="2">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="AH125" t="s" s="2">
         <v>75</v>
@@ -16600,10 +16594,10 @@
         <v>401</v>
       </c>
       <c r="B126" t="s" s="2">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="C126" t="s" s="2">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="D126" s="2"/>
       <c r="E126" t="s" s="2">
@@ -16629,10 +16623,10 @@
         <v>171</v>
       </c>
       <c r="M126" t="s" s="2">
+        <v>599</v>
+      </c>
+      <c r="N126" t="s" s="2">
         <v>600</v>
-      </c>
-      <c r="N126" t="s" s="2">
-        <v>601</v>
       </c>
       <c r="O126" s="2"/>
       <c r="P126" s="2"/>
@@ -16662,11 +16656,11 @@
         <v>106</v>
       </c>
       <c r="Z126" t="s" s="2">
+        <v>601</v>
+      </c>
+      <c r="AA126" t="s" s="2">
         <v>602</v>
       </c>
-      <c r="AA126" t="s" s="2">
-        <v>603</v>
-      </c>
       <c r="AB126" t="s" s="2">
         <v>77</v>
       </c>
@@ -16683,7 +16677,7 @@
         <v>77</v>
       </c>
       <c r="AG126" t="s" s="2">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="AH126" t="s" s="2">
         <v>75</v>
@@ -16703,10 +16697,10 @@
         <v>401</v>
       </c>
       <c r="B127" t="s" s="2">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="C127" t="s" s="2">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="D127" s="2"/>
       <c r="E127" t="s" s="2">
@@ -16729,13 +16723,13 @@
         <v>77</v>
       </c>
       <c r="L127" t="s" s="2">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="M127" t="s" s="2">
+        <v>604</v>
+      </c>
+      <c r="N127" t="s" s="2">
         <v>605</v>
-      </c>
-      <c r="N127" t="s" s="2">
-        <v>606</v>
       </c>
       <c r="O127" s="2"/>
       <c r="P127" s="2"/>
@@ -16786,7 +16780,7 @@
         <v>77</v>
       </c>
       <c r="AG127" t="s" s="2">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="AH127" t="s" s="2">
         <v>75</v>
@@ -16806,10 +16800,10 @@
         <v>401</v>
       </c>
       <c r="B128" t="s" s="2">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="C128" t="s" s="2">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="D128" s="2"/>
       <c r="E128" t="s" s="2">
@@ -16835,10 +16829,10 @@
         <v>171</v>
       </c>
       <c r="M128" t="s" s="2">
+        <v>607</v>
+      </c>
+      <c r="N128" t="s" s="2">
         <v>608</v>
-      </c>
-      <c r="N128" t="s" s="2">
-        <v>609</v>
       </c>
       <c r="O128" s="2"/>
       <c r="P128" s="2"/>
@@ -16865,14 +16859,14 @@
         <v>77</v>
       </c>
       <c r="Y128" t="s" s="2">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="Z128" t="s" s="2">
+        <v>609</v>
+      </c>
+      <c r="AA128" t="s" s="2">
         <v>610</v>
       </c>
-      <c r="AA128" t="s" s="2">
-        <v>611</v>
-      </c>
       <c r="AB128" t="s" s="2">
         <v>77</v>
       </c>
@@ -16889,7 +16883,7 @@
         <v>77</v>
       </c>
       <c r="AG128" t="s" s="2">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="AH128" t="s" s="2">
         <v>75</v>
@@ -16909,10 +16903,10 @@
         <v>401</v>
       </c>
       <c r="B129" t="s" s="2">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="C129" t="s" s="2">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="D129" s="2"/>
       <c r="E129" t="s" s="2">
@@ -16938,13 +16932,13 @@
         <v>313</v>
       </c>
       <c r="M129" t="s" s="2">
+        <v>612</v>
+      </c>
+      <c r="N129" t="s" s="2">
         <v>613</v>
       </c>
-      <c r="N129" t="s" s="2">
+      <c r="O129" t="s" s="2">
         <v>614</v>
-      </c>
-      <c r="O129" t="s" s="2">
-        <v>615</v>
       </c>
       <c r="P129" s="2"/>
       <c r="Q129" t="s" s="2">
@@ -16994,7 +16988,7 @@
         <v>77</v>
       </c>
       <c r="AG129" t="s" s="2">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="AH129" t="s" s="2">
         <v>75</v>
@@ -17014,10 +17008,10 @@
         <v>401</v>
       </c>
       <c r="B130" t="s" s="2">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="C130" t="s" s="2">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="D130" s="2"/>
       <c r="E130" t="s" s="2">
@@ -17117,10 +17111,10 @@
         <v>401</v>
       </c>
       <c r="B131" t="s" s="2">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="C131" t="s" s="2">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="D131" s="2"/>
       <c r="E131" t="s" s="2">
@@ -17222,10 +17216,10 @@
         <v>401</v>
       </c>
       <c r="B132" t="s" s="2">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="C132" t="s" s="2">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="D132" s="2"/>
       <c r="E132" t="s" s="2">
@@ -17329,10 +17323,10 @@
         <v>401</v>
       </c>
       <c r="B133" t="s" s="2">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="C133" t="s" s="2">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="D133" s="2"/>
       <c r="E133" t="s" s="2">
@@ -17355,13 +17349,13 @@
         <v>77</v>
       </c>
       <c r="L133" t="s" s="2">
+        <v>619</v>
+      </c>
+      <c r="M133" t="s" s="2">
         <v>620</v>
       </c>
-      <c r="M133" t="s" s="2">
+      <c r="N133" t="s" s="2">
         <v>621</v>
-      </c>
-      <c r="N133" t="s" s="2">
-        <v>622</v>
       </c>
       <c r="O133" s="2"/>
       <c r="P133" s="2"/>
@@ -17412,7 +17406,7 @@
         <v>77</v>
       </c>
       <c r="AG133" t="s" s="2">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="AH133" t="s" s="2">
         <v>82</v>
@@ -17432,10 +17426,10 @@
         <v>401</v>
       </c>
       <c r="B134" t="s" s="2">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="C134" t="s" s="2">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="D134" s="2"/>
       <c r="E134" t="s" s="2">
@@ -17461,13 +17455,13 @@
         <v>102</v>
       </c>
       <c r="M134" t="s" s="2">
+        <v>623</v>
+      </c>
+      <c r="N134" t="s" s="2">
         <v>624</v>
       </c>
-      <c r="N134" t="s" s="2">
+      <c r="O134" t="s" s="2">
         <v>625</v>
-      </c>
-      <c r="O134" t="s" s="2">
-        <v>626</v>
       </c>
       <c r="P134" s="2"/>
       <c r="Q134" t="s" s="2">
@@ -17496,11 +17490,11 @@
         <v>165</v>
       </c>
       <c r="Z134" t="s" s="2">
+        <v>626</v>
+      </c>
+      <c r="AA134" t="s" s="2">
         <v>627</v>
       </c>
-      <c r="AA134" t="s" s="2">
-        <v>628</v>
-      </c>
       <c r="AB134" t="s" s="2">
         <v>77</v>
       </c>
@@ -17517,7 +17511,7 @@
         <v>77</v>
       </c>
       <c r="AG134" t="s" s="2">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="AH134" t="s" s="2">
         <v>75</v>
@@ -17537,10 +17531,10 @@
         <v>401</v>
       </c>
       <c r="B135" t="s" s="2">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="C135" t="s" s="2">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="D135" s="2"/>
       <c r="E135" t="s" s="2">
@@ -17566,13 +17560,13 @@
         <v>171</v>
       </c>
       <c r="M135" t="s" s="2">
+        <v>629</v>
+      </c>
+      <c r="N135" t="s" s="2">
         <v>630</v>
       </c>
-      <c r="N135" t="s" s="2">
+      <c r="O135" t="s" s="2">
         <v>631</v>
-      </c>
-      <c r="O135" t="s" s="2">
-        <v>632</v>
       </c>
       <c r="P135" s="2"/>
       <c r="Q135" t="s" s="2">
@@ -17598,14 +17592,14 @@
         <v>77</v>
       </c>
       <c r="Y135" t="s" s="2">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="Z135" t="s" s="2">
+        <v>632</v>
+      </c>
+      <c r="AA135" t="s" s="2">
         <v>633</v>
       </c>
-      <c r="AA135" t="s" s="2">
-        <v>634</v>
-      </c>
       <c r="AB135" t="s" s="2">
         <v>77</v>
       </c>
@@ -17622,7 +17616,7 @@
         <v>77</v>
       </c>
       <c r="AG135" t="s" s="2">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="AH135" t="s" s="2">
         <v>75</v>
@@ -17642,10 +17636,10 @@
         <v>401</v>
       </c>
       <c r="B136" t="s" s="2">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="C136" t="s" s="2">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="D136" s="2"/>
       <c r="E136" t="s" s="2">
@@ -17671,10 +17665,10 @@
         <v>198</v>
       </c>
       <c r="M136" t="s" s="2">
+        <v>635</v>
+      </c>
+      <c r="N136" t="s" s="2">
         <v>636</v>
-      </c>
-      <c r="N136" t="s" s="2">
-        <v>637</v>
       </c>
       <c r="O136" s="2"/>
       <c r="P136" s="2"/>
@@ -17725,7 +17719,7 @@
         <v>77</v>
       </c>
       <c r="AG136" t="s" s="2">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="AH136" t="s" s="2">
         <v>75</v>
@@ -17745,10 +17739,10 @@
         <v>401</v>
       </c>
       <c r="B137" t="s" s="2">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="C137" t="s" s="2">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="D137" s="2"/>
       <c r="E137" t="s" s="2">
@@ -17774,10 +17768,10 @@
         <v>204</v>
       </c>
       <c r="M137" t="s" s="2">
+        <v>638</v>
+      </c>
+      <c r="N137" t="s" s="2">
         <v>639</v>
-      </c>
-      <c r="N137" t="s" s="2">
-        <v>640</v>
       </c>
       <c r="O137" s="2"/>
       <c r="P137" s="2"/>
@@ -17828,7 +17822,7 @@
         <v>77</v>
       </c>
       <c r="AG137" t="s" s="2">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="AH137" t="s" s="2">
         <v>75</v>
@@ -17848,10 +17842,10 @@
         <v>401</v>
       </c>
       <c r="B138" t="s" s="2">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="C138" t="s" s="2">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="D138" s="2"/>
       <c r="E138" t="s" s="2">
@@ -17874,16 +17868,16 @@
         <v>77</v>
       </c>
       <c r="L138" t="s" s="2">
+        <v>641</v>
+      </c>
+      <c r="M138" t="s" s="2">
         <v>642</v>
       </c>
-      <c r="M138" t="s" s="2">
+      <c r="N138" t="s" s="2">
         <v>643</v>
       </c>
-      <c r="N138" t="s" s="2">
+      <c r="O138" t="s" s="2">
         <v>644</v>
-      </c>
-      <c r="O138" t="s" s="2">
-        <v>645</v>
       </c>
       <c r="P138" s="2"/>
       <c r="Q138" t="s" s="2">
@@ -17933,7 +17927,7 @@
         <v>77</v>
       </c>
       <c r="AG138" t="s" s="2">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="AH138" t="s" s="2">
         <v>75</v>
@@ -17950,7 +17944,7 @@
     </row>
     <row r="139">
       <c r="A139" t="s" s="2">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="B139" t="s" s="2">
         <v>418</v>
@@ -18053,13 +18047,13 @@
     </row>
     <row r="140">
       <c r="A140" t="s" s="2">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="B140" t="s" s="2">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="C140" t="s" s="2">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="D140" s="2"/>
       <c r="E140" t="s" s="2">
@@ -18156,13 +18150,13 @@
     </row>
     <row r="141">
       <c r="A141" t="s" s="2">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="B141" t="s" s="2">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="C141" t="s" s="2">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="D141" s="2"/>
       <c r="E141" t="s" s="2">
@@ -18259,13 +18253,13 @@
     </row>
     <row r="142">
       <c r="A142" t="s" s="2">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="B142" t="s" s="2">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="C142" t="s" s="2">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="D142" s="2"/>
       <c r="E142" t="s" s="2">
@@ -18291,13 +18285,13 @@
         <v>96</v>
       </c>
       <c r="M142" t="s" s="2">
+        <v>655</v>
+      </c>
+      <c r="N142" t="s" s="2">
         <v>656</v>
       </c>
-      <c r="N142" t="s" s="2">
+      <c r="O142" t="s" s="2">
         <v>657</v>
-      </c>
-      <c r="O142" t="s" s="2">
-        <v>658</v>
       </c>
       <c r="P142" s="2"/>
       <c r="Q142" t="s" s="2">
@@ -18305,7 +18299,7 @@
       </c>
       <c r="R142" s="2"/>
       <c r="S142" t="s" s="2">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="T142" t="s" s="2">
         <v>77</v>
@@ -18347,7 +18341,7 @@
         <v>77</v>
       </c>
       <c r="AG142" t="s" s="2">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="AH142" t="s" s="2">
         <v>82</v>
@@ -18364,13 +18358,13 @@
     </row>
     <row r="143">
       <c r="A143" t="s" s="2">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="B143" t="s" s="2">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="C143" t="s" s="2">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="D143" s="2"/>
       <c r="E143" t="s" s="2">
@@ -18393,13 +18387,13 @@
         <v>77</v>
       </c>
       <c r="L143" t="s" s="2">
+        <v>659</v>
+      </c>
+      <c r="M143" t="s" s="2">
         <v>660</v>
       </c>
-      <c r="M143" t="s" s="2">
+      <c r="N143" t="s" s="2">
         <v>661</v>
-      </c>
-      <c r="N143" t="s" s="2">
-        <v>662</v>
       </c>
       <c r="O143" s="2"/>
       <c r="P143" s="2"/>
@@ -18450,7 +18444,7 @@
         <v>77</v>
       </c>
       <c r="AG143" t="s" s="2">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="AH143" t="s" s="2">
         <v>75</v>
@@ -18467,13 +18461,13 @@
     </row>
     <row r="144">
       <c r="A144" t="s" s="2">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="B144" t="s" s="2">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="C144" t="s" s="2">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="D144" s="2"/>
       <c r="E144" t="s" s="2">
@@ -18499,10 +18493,10 @@
         <v>78</v>
       </c>
       <c r="M144" t="s" s="2">
+        <v>669</v>
+      </c>
+      <c r="N144" t="s" s="2">
         <v>670</v>
-      </c>
-      <c r="N144" t="s" s="2">
-        <v>671</v>
       </c>
       <c r="O144" s="2"/>
       <c r="P144" s="2"/>
@@ -18553,7 +18547,7 @@
         <v>77</v>
       </c>
       <c r="AG144" t="s" s="2">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="AH144" t="s" s="2">
         <v>75</v>
@@ -18570,13 +18564,13 @@
     </row>
     <row r="145">
       <c r="A145" t="s" s="2">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="B145" t="s" s="2">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="C145" t="s" s="2">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="D145" s="2"/>
       <c r="E145" t="s" s="2">
@@ -18675,13 +18669,13 @@
     </row>
     <row r="146">
       <c r="A146" t="s" s="2">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="B146" t="s" s="2">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="C146" t="s" s="2">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="D146" s="2"/>
       <c r="E146" t="s" s="2">
@@ -18778,13 +18772,13 @@
     </row>
     <row r="147">
       <c r="A147" t="s" s="2">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="B147" t="s" s="2">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="C147" t="s" s="2">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="D147" s="2"/>
       <c r="E147" t="s" s="2">
@@ -18883,13 +18877,13 @@
     </row>
     <row r="148">
       <c r="A148" t="s" s="2">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="B148" t="s" s="2">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="C148" t="s" s="2">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="D148" s="2"/>
       <c r="E148" t="s" s="2">
@@ -18988,13 +18982,13 @@
     </row>
     <row r="149">
       <c r="A149" t="s" s="2">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="B149" t="s" s="2">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="C149" t="s" s="2">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="D149" s="2"/>
       <c r="E149" t="s" s="2">
@@ -19093,13 +19087,13 @@
     </row>
     <row r="150">
       <c r="A150" t="s" s="2">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="B150" t="s" s="2">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="C150" t="s" s="2">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="D150" s="2"/>
       <c r="E150" t="s" s="2">
@@ -19198,13 +19192,13 @@
     </row>
     <row r="151">
       <c r="A151" t="s" s="2">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="B151" t="s" s="2">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="C151" t="s" s="2">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="D151" s="2"/>
       <c r="E151" t="s" s="2">
@@ -19303,13 +19297,13 @@
     </row>
     <row r="152">
       <c r="A152" t="s" s="2">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="B152" t="s" s="2">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="C152" t="s" s="2">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="D152" s="2"/>
       <c r="E152" t="s" s="2">
@@ -19410,13 +19404,13 @@
     </row>
     <row r="153">
       <c r="A153" t="s" s="2">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="B153" t="s" s="2">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="C153" t="s" s="2">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="D153" s="2"/>
       <c r="E153" t="s" s="2">
@@ -19442,14 +19436,14 @@
         <v>138</v>
       </c>
       <c r="M153" t="s" s="2">
+        <v>680</v>
+      </c>
+      <c r="N153" t="s" s="2">
         <v>681</v>
-      </c>
-      <c r="N153" t="s" s="2">
-        <v>682</v>
       </c>
       <c r="O153" s="2"/>
       <c r="P153" t="s" s="2">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="Q153" t="s" s="2">
         <v>77</v>
@@ -19486,10 +19480,10 @@
         <v>77</v>
       </c>
       <c r="AC153" t="s" s="2">
+        <v>683</v>
+      </c>
+      <c r="AD153" t="s" s="2">
         <v>684</v>
-      </c>
-      <c r="AD153" t="s" s="2">
-        <v>685</v>
       </c>
       <c r="AE153" t="s" s="2">
         <v>77</v>
@@ -19498,7 +19492,7 @@
         <v>143</v>
       </c>
       <c r="AG153" t="s" s="2">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="AH153" t="s" s="2">
         <v>75</v>
@@ -19507,7 +19501,7 @@
         <v>76</v>
       </c>
       <c r="AJ153" t="s" s="2">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="AK153" t="s" s="2">
         <v>94</v>
@@ -19515,16 +19509,16 @@
     </row>
     <row r="154">
       <c r="A154" t="s" s="2">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="B154" t="s" s="2">
+        <v>686</v>
+      </c>
+      <c r="C154" t="s" s="2">
+        <v>679</v>
+      </c>
+      <c r="D154" t="s" s="2">
         <v>687</v>
-      </c>
-      <c r="C154" t="s" s="2">
-        <v>680</v>
-      </c>
-      <c r="D154" t="s" s="2">
-        <v>688</v>
       </c>
       <c r="E154" t="s" s="2">
         <v>77</v>
@@ -19549,14 +19543,14 @@
         <v>138</v>
       </c>
       <c r="M154" t="s" s="2">
+        <v>680</v>
+      </c>
+      <c r="N154" t="s" s="2">
         <v>681</v>
-      </c>
-      <c r="N154" t="s" s="2">
-        <v>682</v>
       </c>
       <c r="O154" s="2"/>
       <c r="P154" t="s" s="2">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="Q154" t="s" s="2">
         <v>77</v>
@@ -19605,7 +19599,7 @@
         <v>77</v>
       </c>
       <c r="AG154" t="s" s="2">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="AH154" t="s" s="2">
         <v>75</v>
@@ -19614,7 +19608,7 @@
         <v>76</v>
       </c>
       <c r="AJ154" t="s" s="2">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="AK154" t="s" s="2">
         <v>94</v>
@@ -19622,13 +19616,13 @@
     </row>
     <row r="155">
       <c r="A155" t="s" s="2">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="B155" t="s" s="2">
+        <v>688</v>
+      </c>
+      <c r="C155" t="s" s="2">
         <v>689</v>
-      </c>
-      <c r="C155" t="s" s="2">
-        <v>690</v>
       </c>
       <c r="D155" s="2"/>
       <c r="E155" t="s" s="2">
@@ -19725,13 +19719,13 @@
     </row>
     <row r="156">
       <c r="A156" t="s" s="2">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="B156" t="s" s="2">
+        <v>690</v>
+      </c>
+      <c r="C156" t="s" s="2">
         <v>691</v>
-      </c>
-      <c r="C156" t="s" s="2">
-        <v>692</v>
       </c>
       <c r="D156" s="2"/>
       <c r="E156" t="s" s="2">
@@ -19830,13 +19824,13 @@
     </row>
     <row r="157">
       <c r="A157" t="s" s="2">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="B157" t="s" s="2">
+        <v>692</v>
+      </c>
+      <c r="C157" t="s" s="2">
         <v>693</v>
-      </c>
-      <c r="C157" t="s" s="2">
-        <v>694</v>
       </c>
       <c r="D157" s="2"/>
       <c r="E157" t="s" s="2">
@@ -19937,13 +19931,13 @@
     </row>
     <row r="158">
       <c r="A158" t="s" s="2">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="B158" t="s" s="2">
+        <v>694</v>
+      </c>
+      <c r="C158" t="s" s="2">
         <v>695</v>
-      </c>
-      <c r="C158" t="s" s="2">
-        <v>696</v>
       </c>
       <c r="D158" s="2"/>
       <c r="E158" t="s" s="2">
@@ -20044,13 +20038,13 @@
     </row>
     <row r="159">
       <c r="A159" t="s" s="2">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="B159" t="s" s="2">
+        <v>696</v>
+      </c>
+      <c r="C159" t="s" s="2">
         <v>697</v>
-      </c>
-      <c r="C159" t="s" s="2">
-        <v>698</v>
       </c>
       <c r="D159" s="2"/>
       <c r="E159" t="s" s="2">
@@ -20092,7 +20086,7 @@
       </c>
       <c r="R159" s="2"/>
       <c r="S159" t="s" s="2">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="T159" t="s" s="2">
         <v>77</v>
@@ -20151,13 +20145,13 @@
     </row>
     <row r="160">
       <c r="A160" t="s" s="2">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="B160" t="s" s="2">
+        <v>699</v>
+      </c>
+      <c r="C160" t="s" s="2">
         <v>700</v>
-      </c>
-      <c r="C160" t="s" s="2">
-        <v>701</v>
       </c>
       <c r="D160" s="2"/>
       <c r="E160" t="s" s="2">
@@ -20256,13 +20250,13 @@
     </row>
     <row r="161">
       <c r="A161" t="s" s="2">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="B161" t="s" s="2">
+        <v>701</v>
+      </c>
+      <c r="C161" t="s" s="2">
         <v>702</v>
-      </c>
-      <c r="C161" t="s" s="2">
-        <v>703</v>
       </c>
       <c r="D161" s="2"/>
       <c r="E161" t="s" s="2">
@@ -20359,13 +20353,13 @@
     </row>
     <row r="162">
       <c r="A162" t="s" s="2">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="B162" t="s" s="2">
+        <v>703</v>
+      </c>
+      <c r="C162" t="s" s="2">
         <v>704</v>
-      </c>
-      <c r="C162" t="s" s="2">
-        <v>705</v>
       </c>
       <c r="D162" s="2"/>
       <c r="E162" t="s" s="2">
@@ -20464,13 +20458,13 @@
     </row>
     <row r="163">
       <c r="A163" t="s" s="2">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="B163" t="s" s="2">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="C163" t="s" s="2">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="D163" s="2"/>
       <c r="E163" t="s" s="2">
@@ -20496,16 +20490,16 @@
         <v>210</v>
       </c>
       <c r="M163" t="s" s="2">
+        <v>706</v>
+      </c>
+      <c r="N163" t="s" s="2">
         <v>707</v>
       </c>
-      <c r="N163" t="s" s="2">
+      <c r="O163" t="s" s="2">
         <v>708</v>
       </c>
-      <c r="O163" t="s" s="2">
+      <c r="P163" t="s" s="2">
         <v>709</v>
-      </c>
-      <c r="P163" t="s" s="2">
-        <v>710</v>
       </c>
       <c r="Q163" t="s" s="2">
         <v>77</v>
@@ -20556,7 +20550,7 @@
         <v>77</v>
       </c>
       <c r="AG163" t="s" s="2">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="AH163" t="s" s="2">
         <v>75</v>
@@ -20573,13 +20567,13 @@
     </row>
     <row r="164">
       <c r="A164" t="s" s="2">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="B164" t="s" s="2">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="C164" t="s" s="2">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="D164" s="2"/>
       <c r="E164" t="s" s="2">
@@ -20605,16 +20599,16 @@
         <v>171</v>
       </c>
       <c r="M164" t="s" s="2">
+        <v>711</v>
+      </c>
+      <c r="N164" t="s" s="2">
         <v>712</v>
       </c>
-      <c r="N164" t="s" s="2">
+      <c r="O164" t="s" s="2">
         <v>713</v>
       </c>
-      <c r="O164" t="s" s="2">
+      <c r="P164" t="s" s="2">
         <v>714</v>
-      </c>
-      <c r="P164" t="s" s="2">
-        <v>715</v>
       </c>
       <c r="Q164" t="s" s="2">
         <v>77</v>
@@ -20639,14 +20633,14 @@
         <v>77</v>
       </c>
       <c r="Y164" t="s" s="2">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="Z164" t="s" s="2">
+        <v>715</v>
+      </c>
+      <c r="AA164" t="s" s="2">
         <v>716</v>
       </c>
-      <c r="AA164" t="s" s="2">
-        <v>717</v>
-      </c>
       <c r="AB164" t="s" s="2">
         <v>77</v>
       </c>
@@ -20663,7 +20657,7 @@
         <v>77</v>
       </c>
       <c r="AG164" t="s" s="2">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="AH164" t="s" s="2">
         <v>75</v>
@@ -20680,13 +20674,13 @@
     </row>
     <row r="165">
       <c r="A165" t="s" s="2">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="B165" t="s" s="2">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="C165" t="s" s="2">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="D165" s="2"/>
       <c r="E165" t="s" s="2">
@@ -20712,16 +20706,16 @@
         <v>148</v>
       </c>
       <c r="M165" t="s" s="2">
+        <v>718</v>
+      </c>
+      <c r="N165" t="s" s="2">
         <v>719</v>
       </c>
-      <c r="N165" t="s" s="2">
+      <c r="O165" t="s" s="2">
         <v>720</v>
       </c>
-      <c r="O165" t="s" s="2">
+      <c r="P165" t="s" s="2">
         <v>721</v>
-      </c>
-      <c r="P165" t="s" s="2">
-        <v>722</v>
       </c>
       <c r="Q165" t="s" s="2">
         <v>77</v>
@@ -20770,7 +20764,7 @@
         <v>77</v>
       </c>
       <c r="AG165" t="s" s="2">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="AH165" t="s" s="2">
         <v>75</v>
@@ -20779,7 +20773,7 @@
         <v>82</v>
       </c>
       <c r="AJ165" t="s" s="2">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="AK165" t="s" s="2">
         <v>94</v>
@@ -20787,13 +20781,13 @@
     </row>
     <row r="166">
       <c r="A166" t="s" s="2">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="B166" t="s" s="2">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="C166" t="s" s="2">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="D166" s="2"/>
       <c r="E166" t="s" s="2">
@@ -20819,16 +20813,16 @@
         <v>148</v>
       </c>
       <c r="M166" t="s" s="2">
+        <v>723</v>
+      </c>
+      <c r="N166" t="s" s="2">
         <v>724</v>
       </c>
-      <c r="N166" t="s" s="2">
+      <c r="O166" t="s" s="2">
         <v>725</v>
       </c>
-      <c r="O166" t="s" s="2">
+      <c r="P166" t="s" s="2">
         <v>726</v>
-      </c>
-      <c r="P166" t="s" s="2">
-        <v>727</v>
       </c>
       <c r="Q166" t="s" s="2">
         <v>77</v>
@@ -20877,7 +20871,7 @@
         <v>77</v>
       </c>
       <c r="AG166" t="s" s="2">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="AH166" t="s" s="2">
         <v>75</v>
@@ -20894,13 +20888,13 @@
     </row>
     <row r="167">
       <c r="A167" t="s" s="2">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="B167" t="s" s="2">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="C167" t="s" s="2">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="D167" s="2"/>
       <c r="E167" t="s" s="2">
@@ -20926,16 +20920,16 @@
         <v>264</v>
       </c>
       <c r="M167" t="s" s="2">
+        <v>728</v>
+      </c>
+      <c r="N167" t="s" s="2">
         <v>729</v>
       </c>
-      <c r="N167" t="s" s="2">
+      <c r="O167" t="s" s="2">
         <v>730</v>
       </c>
-      <c r="O167" t="s" s="2">
+      <c r="P167" t="s" s="2">
         <v>731</v>
-      </c>
-      <c r="P167" t="s" s="2">
-        <v>732</v>
       </c>
       <c r="Q167" t="s" s="2">
         <v>77</v>
@@ -20984,7 +20978,7 @@
         <v>77</v>
       </c>
       <c r="AG167" t="s" s="2">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="AH167" t="s" s="2">
         <v>75</v>
@@ -20993,21 +20987,21 @@
         <v>76</v>
       </c>
       <c r="AJ167" t="s" s="2">
+        <v>732</v>
+      </c>
+      <c r="AK167" t="s" s="2">
         <v>733</v>
-      </c>
-      <c r="AK167" t="s" s="2">
-        <v>734</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="s" s="2">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="B168" t="s" s="2">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="C168" t="s" s="2">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="D168" s="2"/>
       <c r="E168" t="s" s="2">
@@ -21033,16 +21027,16 @@
         <v>289</v>
       </c>
       <c r="M168" t="s" s="2">
+        <v>735</v>
+      </c>
+      <c r="N168" t="s" s="2">
         <v>736</v>
       </c>
-      <c r="N168" t="s" s="2">
+      <c r="O168" t="s" s="2">
         <v>737</v>
       </c>
-      <c r="O168" t="s" s="2">
+      <c r="P168" t="s" s="2">
         <v>738</v>
-      </c>
-      <c r="P168" t="s" s="2">
-        <v>739</v>
       </c>
       <c r="Q168" t="s" s="2">
         <v>77</v>
@@ -21091,7 +21085,7 @@
         <v>77</v>
       </c>
       <c r="AG168" t="s" s="2">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="AH168" t="s" s="2">
         <v>75</v>
@@ -21100,21 +21094,21 @@
         <v>76</v>
       </c>
       <c r="AJ168" t="s" s="2">
+        <v>739</v>
+      </c>
+      <c r="AK168" t="s" s="2">
         <v>740</v>
-      </c>
-      <c r="AK168" t="s" s="2">
-        <v>741</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="s" s="2">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="B169" t="s" s="2">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="C169" t="s" s="2">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="D169" s="2"/>
       <c r="E169" t="s" s="2">
@@ -21211,13 +21205,13 @@
     </row>
     <row r="170">
       <c r="A170" t="s" s="2">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="B170" t="s" s="2">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="C170" t="s" s="2">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="D170" s="2"/>
       <c r="E170" t="s" s="2">
@@ -21316,13 +21310,13 @@
     </row>
     <row r="171">
       <c r="A171" t="s" s="2">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="B171" t="s" s="2">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="C171" t="s" s="2">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="D171" s="2"/>
       <c r="E171" t="s" s="2">
@@ -21348,16 +21342,16 @@
         <v>102</v>
       </c>
       <c r="M171" t="s" s="2">
+        <v>744</v>
+      </c>
+      <c r="N171" t="s" s="2">
         <v>745</v>
       </c>
-      <c r="N171" t="s" s="2">
+      <c r="O171" t="s" s="2">
         <v>746</v>
       </c>
-      <c r="O171" t="s" s="2">
+      <c r="P171" t="s" s="2">
         <v>747</v>
-      </c>
-      <c r="P171" t="s" s="2">
-        <v>748</v>
       </c>
       <c r="Q171" t="s" s="2">
         <v>77</v>
@@ -21370,7 +21364,7 @@
         <v>77</v>
       </c>
       <c r="U171" t="s" s="2">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="V171" t="s" s="2">
         <v>77</v>
@@ -21385,28 +21379,28 @@
         <v>165</v>
       </c>
       <c r="Z171" t="s" s="2">
+        <v>749</v>
+      </c>
+      <c r="AA171" t="s" s="2">
         <v>750</v>
       </c>
-      <c r="AA171" t="s" s="2">
+      <c r="AB171" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC171" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD171" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE171" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF171" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG171" t="s" s="2">
         <v>751</v>
-      </c>
-      <c r="AB171" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC171" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD171" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE171" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF171" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AG171" t="s" s="2">
-        <v>752</v>
       </c>
       <c r="AH171" t="s" s="2">
         <v>75</v>
@@ -21423,13 +21417,13 @@
     </row>
     <row r="172">
       <c r="A172" t="s" s="2">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="B172" t="s" s="2">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="C172" t="s" s="2">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="D172" s="2"/>
       <c r="E172" t="s" s="2">
@@ -21455,13 +21449,13 @@
         <v>102</v>
       </c>
       <c r="M172" t="s" s="2">
+        <v>753</v>
+      </c>
+      <c r="N172" t="s" s="2">
         <v>754</v>
       </c>
-      <c r="N172" t="s" s="2">
+      <c r="O172" t="s" s="2">
         <v>755</v>
-      </c>
-      <c r="O172" t="s" s="2">
-        <v>756</v>
       </c>
       <c r="P172" s="2"/>
       <c r="Q172" t="s" s="2">
@@ -21475,7 +21469,7 @@
         <v>77</v>
       </c>
       <c r="U172" t="s" s="2">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="V172" t="s" s="2">
         <v>77</v>
@@ -21490,28 +21484,28 @@
         <v>165</v>
       </c>
       <c r="Z172" t="s" s="2">
+        <v>757</v>
+      </c>
+      <c r="AA172" t="s" s="2">
         <v>758</v>
       </c>
-      <c r="AA172" t="s" s="2">
+      <c r="AB172" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC172" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD172" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE172" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF172" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG172" t="s" s="2">
         <v>759</v>
-      </c>
-      <c r="AB172" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC172" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD172" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE172" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF172" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AG172" t="s" s="2">
-        <v>760</v>
       </c>
       <c r="AH172" t="s" s="2">
         <v>75</v>
@@ -21528,13 +21522,13 @@
     </row>
     <row r="173">
       <c r="A173" t="s" s="2">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="B173" t="s" s="2">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="C173" t="s" s="2">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="D173" s="2"/>
       <c r="E173" t="s" s="2">
@@ -21560,13 +21554,13 @@
         <v>148</v>
       </c>
       <c r="M173" t="s" s="2">
+        <v>761</v>
+      </c>
+      <c r="N173" t="s" s="2">
         <v>762</v>
       </c>
-      <c r="N173" t="s" s="2">
+      <c r="O173" t="s" s="2">
         <v>763</v>
-      </c>
-      <c r="O173" t="s" s="2">
-        <v>764</v>
       </c>
       <c r="P173" t="s" s="2">
         <v>236</v>
@@ -21582,43 +21576,43 @@
         <v>77</v>
       </c>
       <c r="U173" t="s" s="2">
+        <v>764</v>
+      </c>
+      <c r="V173" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W173" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X173" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y173" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z173" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA173" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB173" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC173" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD173" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE173" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF173" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG173" t="s" s="2">
         <v>765</v>
-      </c>
-      <c r="V173" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W173" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X173" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y173" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Z173" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA173" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB173" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC173" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD173" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE173" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF173" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AG173" t="s" s="2">
-        <v>766</v>
       </c>
       <c r="AH173" t="s" s="2">
         <v>75</v>
@@ -21635,13 +21629,13 @@
     </row>
     <row r="174">
       <c r="A174" t="s" s="2">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="B174" t="s" s="2">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="C174" t="s" s="2">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="D174" s="2"/>
       <c r="E174" t="s" s="2">
@@ -21667,10 +21661,10 @@
         <v>148</v>
       </c>
       <c r="M174" t="s" s="2">
+        <v>767</v>
+      </c>
+      <c r="N174" t="s" s="2">
         <v>768</v>
-      </c>
-      <c r="N174" t="s" s="2">
-        <v>769</v>
       </c>
       <c r="O174" s="2"/>
       <c r="P174" s="2"/>
@@ -21685,43 +21679,43 @@
         <v>77</v>
       </c>
       <c r="U174" t="s" s="2">
+        <v>769</v>
+      </c>
+      <c r="V174" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W174" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X174" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y174" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z174" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA174" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB174" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC174" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD174" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE174" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF174" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG174" t="s" s="2">
         <v>770</v>
-      </c>
-      <c r="V174" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W174" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X174" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y174" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Z174" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA174" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB174" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC174" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD174" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE174" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF174" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AG174" t="s" s="2">
-        <v>771</v>
       </c>
       <c r="AH174" t="s" s="2">
         <v>75</v>
@@ -21738,17 +21732,17 @@
     </row>
     <row r="175">
       <c r="A175" t="s" s="2">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="B175" t="s" s="2">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="C175" t="s" s="2">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="D175" s="2"/>
       <c r="E175" t="s" s="2">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="F175" s="2"/>
       <c r="G175" t="s" s="2">
@@ -21770,10 +21764,10 @@
         <v>148</v>
       </c>
       <c r="M175" t="s" s="2">
+        <v>773</v>
+      </c>
+      <c r="N175" t="s" s="2">
         <v>774</v>
-      </c>
-      <c r="N175" t="s" s="2">
-        <v>775</v>
       </c>
       <c r="O175" s="2"/>
       <c r="P175" s="2"/>
@@ -21788,43 +21782,43 @@
         <v>77</v>
       </c>
       <c r="U175" t="s" s="2">
+        <v>775</v>
+      </c>
+      <c r="V175" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W175" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X175" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y175" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z175" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA175" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB175" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC175" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD175" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE175" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF175" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG175" t="s" s="2">
         <v>776</v>
-      </c>
-      <c r="V175" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W175" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X175" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y175" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Z175" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA175" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB175" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC175" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD175" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE175" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF175" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AG175" t="s" s="2">
-        <v>777</v>
       </c>
       <c r="AH175" t="s" s="2">
         <v>75</v>
@@ -21841,17 +21835,17 @@
     </row>
     <row r="176">
       <c r="A176" t="s" s="2">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="B176" t="s" s="2">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="C176" t="s" s="2">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="D176" s="2"/>
       <c r="E176" t="s" s="2">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="F176" s="2"/>
       <c r="G176" t="s" s="2">
@@ -21873,13 +21867,13 @@
         <v>148</v>
       </c>
       <c r="M176" t="s" s="2">
+        <v>779</v>
+      </c>
+      <c r="N176" t="s" s="2">
         <v>780</v>
       </c>
-      <c r="N176" t="s" s="2">
+      <c r="O176" t="s" s="2">
         <v>781</v>
-      </c>
-      <c r="O176" t="s" s="2">
-        <v>782</v>
       </c>
       <c r="P176" s="2"/>
       <c r="Q176" t="s" s="2">
@@ -21893,43 +21887,43 @@
         <v>77</v>
       </c>
       <c r="U176" t="s" s="2">
+        <v>782</v>
+      </c>
+      <c r="V176" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W176" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X176" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y176" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z176" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA176" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB176" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC176" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD176" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE176" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF176" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG176" t="s" s="2">
         <v>783</v>
-      </c>
-      <c r="V176" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W176" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X176" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y176" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Z176" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA176" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB176" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC176" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD176" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE176" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF176" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AG176" t="s" s="2">
-        <v>784</v>
       </c>
       <c r="AH176" t="s" s="2">
         <v>75</v>
@@ -21946,17 +21940,17 @@
     </row>
     <row r="177">
       <c r="A177" t="s" s="2">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="B177" t="s" s="2">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="C177" t="s" s="2">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="D177" s="2"/>
       <c r="E177" t="s" s="2">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="F177" s="2"/>
       <c r="G177" t="s" s="2">
@@ -21978,10 +21972,10 @@
         <v>148</v>
       </c>
       <c r="M177" t="s" s="2">
+        <v>786</v>
+      </c>
+      <c r="N177" t="s" s="2">
         <v>787</v>
-      </c>
-      <c r="N177" t="s" s="2">
-        <v>788</v>
       </c>
       <c r="O177" s="2"/>
       <c r="P177" s="2"/>
@@ -22032,7 +22026,7 @@
         <v>77</v>
       </c>
       <c r="AG177" t="s" s="2">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="AH177" t="s" s="2">
         <v>75</v>
@@ -22049,17 +22043,17 @@
     </row>
     <row r="178">
       <c r="A178" t="s" s="2">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="B178" t="s" s="2">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="C178" t="s" s="2">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="D178" s="2"/>
       <c r="E178" t="s" s="2">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="F178" s="2"/>
       <c r="G178" t="s" s="2">
@@ -22081,10 +22075,10 @@
         <v>148</v>
       </c>
       <c r="M178" t="s" s="2">
+        <v>791</v>
+      </c>
+      <c r="N178" t="s" s="2">
         <v>792</v>
-      </c>
-      <c r="N178" t="s" s="2">
-        <v>793</v>
       </c>
       <c r="O178" s="2"/>
       <c r="P178" s="2"/>
@@ -22099,43 +22093,43 @@
         <v>77</v>
       </c>
       <c r="U178" t="s" s="2">
+        <v>793</v>
+      </c>
+      <c r="V178" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W178" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X178" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y178" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z178" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA178" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB178" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC178" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD178" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE178" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF178" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG178" t="s" s="2">
         <v>794</v>
-      </c>
-      <c r="V178" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W178" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X178" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y178" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Z178" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA178" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB178" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC178" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD178" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE178" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF178" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AG178" t="s" s="2">
-        <v>795</v>
       </c>
       <c r="AH178" t="s" s="2">
         <v>75</v>
@@ -22152,13 +22146,13 @@
     </row>
     <row r="179">
       <c r="A179" t="s" s="2">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="B179" t="s" s="2">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="C179" t="s" s="2">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="D179" s="2"/>
       <c r="E179" t="s" s="2">
@@ -22184,13 +22178,13 @@
         <v>148</v>
       </c>
       <c r="M179" t="s" s="2">
+        <v>796</v>
+      </c>
+      <c r="N179" t="s" s="2">
         <v>797</v>
       </c>
-      <c r="N179" t="s" s="2">
+      <c r="O179" t="s" s="2">
         <v>798</v>
-      </c>
-      <c r="O179" t="s" s="2">
-        <v>799</v>
       </c>
       <c r="P179" s="2"/>
       <c r="Q179" t="s" s="2">
@@ -22240,7 +22234,7 @@
         <v>77</v>
       </c>
       <c r="AG179" t="s" s="2">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="AH179" t="s" s="2">
         <v>75</v>
@@ -22257,13 +22251,13 @@
     </row>
     <row r="180">
       <c r="A180" t="s" s="2">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="B180" t="s" s="2">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="C180" t="s" s="2">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="D180" s="2"/>
       <c r="E180" t="s" s="2">
@@ -22289,14 +22283,14 @@
         <v>198</v>
       </c>
       <c r="M180" t="s" s="2">
+        <v>801</v>
+      </c>
+      <c r="N180" t="s" s="2">
         <v>802</v>
-      </c>
-      <c r="N180" t="s" s="2">
-        <v>803</v>
       </c>
       <c r="O180" s="2"/>
       <c r="P180" t="s" s="2">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="Q180" t="s" s="2">
         <v>77</v>
@@ -22309,43 +22303,43 @@
         <v>77</v>
       </c>
       <c r="U180" t="s" s="2">
+        <v>804</v>
+      </c>
+      <c r="V180" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W180" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X180" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y180" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z180" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA180" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB180" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC180" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD180" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE180" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF180" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG180" t="s" s="2">
         <v>805</v>
-      </c>
-      <c r="V180" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W180" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X180" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y180" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Z180" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA180" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB180" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC180" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD180" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE180" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF180" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AG180" t="s" s="2">
-        <v>806</v>
       </c>
       <c r="AH180" t="s" s="2">
         <v>75</v>
@@ -22362,13 +22356,13 @@
     </row>
     <row r="181">
       <c r="A181" t="s" s="2">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="B181" t="s" s="2">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="C181" t="s" s="2">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="D181" s="2"/>
       <c r="E181" t="s" s="2">
@@ -22394,14 +22388,14 @@
         <v>204</v>
       </c>
       <c r="M181" t="s" s="2">
+        <v>807</v>
+      </c>
+      <c r="N181" t="s" s="2">
         <v>808</v>
-      </c>
-      <c r="N181" t="s" s="2">
-        <v>809</v>
       </c>
       <c r="O181" s="2"/>
       <c r="P181" t="s" s="2">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="Q181" t="s" s="2">
         <v>77</v>
@@ -22450,7 +22444,7 @@
         <v>77</v>
       </c>
       <c r="AG181" t="s" s="2">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="AH181" t="s" s="2">
         <v>75</v>
@@ -22467,13 +22461,13 @@
     </row>
     <row r="182">
       <c r="A182" t="s" s="2">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="B182" t="s" s="2">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="C182" t="s" s="2">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="D182" s="2"/>
       <c r="E182" t="s" s="2">
@@ -22499,16 +22493,16 @@
         <v>313</v>
       </c>
       <c r="M182" t="s" s="2">
+        <v>811</v>
+      </c>
+      <c r="N182" t="s" s="2">
         <v>812</v>
       </c>
-      <c r="N182" t="s" s="2">
+      <c r="O182" t="s" s="2">
         <v>813</v>
       </c>
-      <c r="O182" t="s" s="2">
+      <c r="P182" t="s" s="2">
         <v>814</v>
-      </c>
-      <c r="P182" t="s" s="2">
-        <v>815</v>
       </c>
       <c r="Q182" t="s" s="2">
         <v>77</v>
@@ -22557,7 +22551,7 @@
         <v>77</v>
       </c>
       <c r="AG182" t="s" s="2">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="AH182" t="s" s="2">
         <v>75</v>
@@ -22574,13 +22568,13 @@
     </row>
     <row r="183">
       <c r="A183" t="s" s="2">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="B183" t="s" s="2">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="C183" t="s" s="2">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="D183" s="2"/>
       <c r="E183" t="s" s="2">
@@ -22677,13 +22671,13 @@
     </row>
     <row r="184">
       <c r="A184" t="s" s="2">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="B184" t="s" s="2">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="C184" t="s" s="2">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="D184" s="2"/>
       <c r="E184" t="s" s="2">
@@ -22782,13 +22776,13 @@
     </row>
     <row r="185">
       <c r="A185" t="s" s="2">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="B185" t="s" s="2">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="C185" t="s" s="2">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="D185" s="2"/>
       <c r="E185" t="s" s="2">
@@ -22889,13 +22883,13 @@
     </row>
     <row r="186">
       <c r="A186" t="s" s="2">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="B186" t="s" s="2">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="C186" t="s" s="2">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="D186" s="2"/>
       <c r="E186" t="s" s="2">
@@ -22921,14 +22915,14 @@
         <v>171</v>
       </c>
       <c r="M186" t="s" s="2">
+        <v>819</v>
+      </c>
+      <c r="N186" t="s" s="2">
         <v>820</v>
-      </c>
-      <c r="N186" t="s" s="2">
-        <v>821</v>
       </c>
       <c r="O186" s="2"/>
       <c r="P186" t="s" s="2">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="Q186" t="s" s="2">
         <v>77</v>
@@ -22956,11 +22950,11 @@
         <v>176</v>
       </c>
       <c r="Z186" t="s" s="2">
+        <v>822</v>
+      </c>
+      <c r="AA186" t="s" s="2">
         <v>823</v>
       </c>
-      <c r="AA186" t="s" s="2">
-        <v>824</v>
-      </c>
       <c r="AB186" t="s" s="2">
         <v>77</v>
       </c>
@@ -22977,7 +22971,7 @@
         <v>77</v>
       </c>
       <c r="AG186" t="s" s="2">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="AH186" t="s" s="2">
         <v>75</v>
@@ -22994,13 +22988,13 @@
     </row>
     <row r="187">
       <c r="A187" t="s" s="2">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="B187" t="s" s="2">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="C187" t="s" s="2">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="D187" s="2"/>
       <c r="E187" t="s" s="2">
@@ -23026,14 +23020,14 @@
         <v>217</v>
       </c>
       <c r="M187" t="s" s="2">
+        <v>825</v>
+      </c>
+      <c r="N187" t="s" s="2">
         <v>826</v>
-      </c>
-      <c r="N187" t="s" s="2">
-        <v>827</v>
       </c>
       <c r="O187" s="2"/>
       <c r="P187" t="s" s="2">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="Q187" t="s" s="2">
         <v>77</v>
@@ -23082,7 +23076,7 @@
         <v>77</v>
       </c>
       <c r="AG187" t="s" s="2">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="AH187" t="s" s="2">
         <v>75</v>
@@ -23099,13 +23093,13 @@
     </row>
     <row r="188">
       <c r="A188" t="s" s="2">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="B188" t="s" s="2">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="C188" t="s" s="2">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="D188" s="2"/>
       <c r="E188" t="s" s="2">
@@ -23131,10 +23125,10 @@
         <v>264</v>
       </c>
       <c r="M188" t="s" s="2">
+        <v>829</v>
+      </c>
+      <c r="N188" t="s" s="2">
         <v>830</v>
-      </c>
-      <c r="N188" t="s" s="2">
-        <v>831</v>
       </c>
       <c r="O188" s="2"/>
       <c r="P188" t="s" s="2">
@@ -23187,7 +23181,7 @@
         <v>77</v>
       </c>
       <c r="AG188" t="s" s="2">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="AH188" t="s" s="2">
         <v>75</v>
@@ -23204,13 +23198,13 @@
     </row>
     <row r="189">
       <c r="A189" t="s" s="2">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="B189" t="s" s="2">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="C189" t="s" s="2">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="D189" s="2"/>
       <c r="E189" t="s" s="2">
@@ -23236,14 +23230,14 @@
         <v>289</v>
       </c>
       <c r="M189" t="s" s="2">
+        <v>832</v>
+      </c>
+      <c r="N189" t="s" s="2">
         <v>833</v>
-      </c>
-      <c r="N189" t="s" s="2">
-        <v>834</v>
       </c>
       <c r="O189" s="2"/>
       <c r="P189" t="s" s="2">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="Q189" t="s" s="2">
         <v>77</v>
@@ -23292,7 +23286,7 @@
         <v>77</v>
       </c>
       <c r="AG189" t="s" s="2">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="AH189" t="s" s="2">
         <v>75</v>
@@ -23309,13 +23303,13 @@
     </row>
     <row r="190">
       <c r="A190" t="s" s="2">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="B190" t="s" s="2">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="C190" t="s" s="2">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="D190" s="2"/>
       <c r="E190" t="s" s="2">
@@ -23338,17 +23332,17 @@
         <v>77</v>
       </c>
       <c r="L190" t="s" s="2">
+        <v>836</v>
+      </c>
+      <c r="M190" t="s" s="2">
         <v>837</v>
       </c>
-      <c r="M190" t="s" s="2">
+      <c r="N190" t="s" s="2">
         <v>838</v>
-      </c>
-      <c r="N190" t="s" s="2">
-        <v>839</v>
       </c>
       <c r="O190" s="2"/>
       <c r="P190" t="s" s="2">
-        <v>840</v>
+        <v>839</v>
       </c>
       <c r="Q190" t="s" s="2">
         <v>77</v>
@@ -23397,7 +23391,7 @@
         <v>77</v>
       </c>
       <c r="AG190" t="s" s="2">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="AH190" t="s" s="2">
         <v>75</v>

--- a/branches/HIVDiagnosisEncouner--FIG-37/all-profiles.xlsx
+++ b/branches/HIVDiagnosisEncouner--FIG-37/all-profiles.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-03T13:32:48+00:00</t>
+    <t>2023-02-03T13:32:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/HIVDiagnosisEncouner--FIG-37/all-profiles.xlsx
+++ b/branches/HIVDiagnosisEncouner--FIG-37/all-profiles.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-06T10:17:42+00:00</t>
+    <t>2023-02-06T10:17:53+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
